--- a/我的任务/李静小组任务.xlsx
+++ b/我的任务/李静小组任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -104,11 +104,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   第二周工作安排【2013-04-08 至 2013-04-14】  &gt;&gt;&gt;&gt;</t>
+    <t xml:space="preserve">   第四周工作安排【2013-04-22 至 2013-04-30】  &gt;&gt;&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   第四周工作安排【2013-04-22 至 2013-04-30】  &gt;&gt;&gt;&gt;</t>
+    <t xml:space="preserve">   第二周工作安排【2014-05-12 至 2014-06-18】  &gt;&gt;&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资系统剩余bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托人利息管理(暂存)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李听</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存的撤资申请、撤资审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板的配置修改还有测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图上传以及上传之后的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做功能的扫尾工作/模板的配置修改还有测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +307,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -572,7 +615,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -586,10 +629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="1" t="s">
@@ -612,14 +655,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="14.25">
       <c r="A4" s="2">
@@ -652,10 +695,12 @@
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13">
+        <v>41766</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="14.25">
       <c r="A6" s="7">
@@ -701,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -730,21 +775,25 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -755,8 +804,12 @@
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
         <v>10</v>
@@ -767,8 +820,12 @@
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -779,8 +836,12 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
         <v>10</v>
@@ -791,8 +852,12 @@
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
         <v>10</v>
@@ -803,8 +868,12 @@
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -812,14 +881,14 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4">
@@ -894,14 +963,14 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="14.25">
-      <c r="A24" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4">
